--- a/results/Auto/genero-m1_es_adjetivocolores-m2.xlsx
+++ b/results/Auto/genero-m1_es_adjetivocolores-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004236306063830853</v>
+        <v>8.549475571939524e-10</v>
       </c>
       <c r="E2" t="n">
         <v>0.0004673208168242127</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001653113402426243</v>
+        <v>3.524052605285988e-09</v>
       </c>
       <c r="E3" t="n">
         <v>0.0002208239166066051</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001153304358012974</v>
+        <v>7.404920565612372e-10</v>
       </c>
       <c r="E4" t="n">
         <v>0.0002161637530662119</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003771014278754592</v>
+        <v>7.130539270150393e-09</v>
       </c>
       <c r="E5" t="n">
         <v>0.001509667839854956</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01902331225574017</v>
+        <v>1.505476854291032e-09</v>
       </c>
       <c r="E6" t="n">
         <v>0.0005006726132705808</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0002023325650952756</v>
+        <v>3.257863534500416e-09</v>
       </c>
       <c r="E7" t="n">
         <v>3.414915408939123e-05</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005795294884592295</v>
+        <v>1.788039938332986e-09</v>
       </c>
       <c r="E8" t="n">
         <v>0.0003773426578845829</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007535852026194334</v>
+        <v>1.273782501698406e-08</v>
       </c>
       <c r="E9" t="n">
         <v>0.003652239451184869</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003131635894533247</v>
+        <v>2.928633169307915e-10</v>
       </c>
       <c r="E10" t="n">
         <v>7.527226443926338e-06</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0008605913608334959</v>
+        <v>1.77404466117359e-10</v>
       </c>
       <c r="E11" t="n">
         <v>0.0002860675449483097</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01065178960561752</v>
+        <v>1.821986330696745e-07</v>
       </c>
       <c r="E12" t="n">
         <v>0.001130206976085901</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005868565756827593</v>
+        <v>3.239628343365553e-09</v>
       </c>
       <c r="E13" t="n">
         <v>0.001774007454514503</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002120328601449728</v>
+        <v>1.981154351682335e-09</v>
       </c>
       <c r="E14" t="n">
         <v>0.0002755929017439485</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001918849069625139</v>
+        <v>5.704954730845202e-09</v>
       </c>
       <c r="E15" t="n">
         <v>0.0007175093633122742</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003471132600679994</v>
+        <v>5.473942010780775e-08</v>
       </c>
       <c r="E16" t="n">
         <v>0.0003487986396066844</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002975477604195476</v>
+        <v>1.536930405166004e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.0006593373254872859</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01401301193982363</v>
+        <v>1.755142697845713e-08</v>
       </c>
       <c r="E18" t="n">
         <v>0.0004556963976938277</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002704750513657928</v>
+        <v>1.368486035602245e-08</v>
       </c>
       <c r="E19" t="n">
         <v>0.001344629446975887</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.007881641387939453</v>
+        <v>3.110748325596546e-09</v>
       </c>
       <c r="E20" t="n">
         <v>0.0001643095602048561</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003907326143234968</v>
+        <v>1.426350565436607e-10</v>
       </c>
       <c r="E21" t="n">
         <v>9.997851157095283e-05</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003257520264014602</v>
+        <v>2.098478502077228e-09</v>
       </c>
       <c r="E22" t="n">
         <v>0.001325065735727549</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02189404889941216</v>
+        <v>4.203546311032369e-08</v>
       </c>
       <c r="E23" t="n">
         <v>0.005969487130641937</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0003060379822272807</v>
+        <v>2.772591711774908e-09</v>
       </c>
       <c r="E24" t="n">
         <v>5.502307249116711e-05</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01616215147078037</v>
+        <v>3.928335712277686e-10</v>
       </c>
       <c r="E25" t="n">
         <v>1.924721618706826e-05</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001055307919159532</v>
+        <v>9.362557396030979e-10</v>
       </c>
       <c r="E26" t="n">
         <v>0.0001082972448784858</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01636029221117496</v>
+        <v>3.535130188581093e-09</v>
       </c>
       <c r="E27" t="n">
         <v>0.0006645742105320096</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0213964581489563</v>
+        <v>3.914907564794845e-10</v>
       </c>
       <c r="E28" t="n">
         <v>8.385943510802463e-05</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002111427253112197</v>
+        <v>6.726363910303235e-11</v>
       </c>
       <c r="E29" t="n">
         <v>0.0002461160183884203</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003330124309286475</v>
+        <v>2.290736844656749e-08</v>
       </c>
       <c r="E30" t="n">
         <v>0.0002293174475198612</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.005169453099370003</v>
+        <v>1.370511348852688e-08</v>
       </c>
       <c r="E31" t="n">
         <v>0.0001269562926609069</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01339031383395195</v>
+        <v>1.737300259208041e-08</v>
       </c>
       <c r="E32" t="n">
         <v>0.002459528390318155</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002341466955840588</v>
+        <v>2.3590094322401e-09</v>
       </c>
       <c r="E33" t="n">
         <v>0.002254127059131861</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01142147928476334</v>
+        <v>1.235222368833888e-09</v>
       </c>
       <c r="E34" t="n">
         <v>0.0004878681211266667</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002384839113801718</v>
+        <v>4.69063294872285e-08</v>
       </c>
       <c r="E35" t="n">
         <v>0.0001435110025340691</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0014527722960338</v>
+        <v>2.176119906494023e-08</v>
       </c>
       <c r="E36" t="n">
         <v>0.0005724822403863072</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005288175772875547</v>
+        <v>5.628441357430347e-08</v>
       </c>
       <c r="E37" t="n">
         <v>0.001319751958362758</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001717436243779957</v>
+        <v>1.339054839233356e-10</v>
       </c>
       <c r="E38" t="n">
         <v>1.109836739487946e-05</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001717436243779957</v>
+        <v>1.339054839233356e-10</v>
       </c>
       <c r="E39" t="n">
         <v>1.109836739487946e-05</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01636409573256969</v>
+        <v>8.528417083653039e-09</v>
       </c>
       <c r="E40" t="n">
         <v>4.682953294832259e-05</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003116612089797854</v>
+        <v>1.206120447960757e-08</v>
       </c>
       <c r="E41" t="n">
         <v>0.01141050923615694</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01104929111897945</v>
+        <v>3.67721020300138e-10</v>
       </c>
       <c r="E42" t="n">
         <v>0.001640722039155662</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.008016052655875683</v>
+        <v>1.796578164015017e-10</v>
       </c>
       <c r="E43" t="n">
         <v>0.0005505898152478039</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01011617667973042</v>
+        <v>7.078559516315863e-09</v>
       </c>
       <c r="E44" t="n">
         <v>0.0005073499050922692</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0009172186255455017</v>
+        <v>1.479376954272027e-09</v>
       </c>
       <c r="E45" t="n">
         <v>4.89872763864696e-05</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003959406167268753</v>
+        <v>2.423942158102932e-09</v>
       </c>
       <c r="E46" t="n">
         <v>0.0001619991235202178</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0006648399867117405</v>
+        <v>3.800491865657563e-11</v>
       </c>
       <c r="E47" t="n">
         <v>5.391421382228145e-06</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002220305381342769</v>
+        <v>4.353307048177157e-09</v>
       </c>
       <c r="E48" t="n">
         <v>0.0002734815643634647</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005212429445236921</v>
+        <v>7.669028967427494e-09</v>
       </c>
       <c r="E49" t="n">
         <v>0.0004311819793656468</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0005391854792833328</v>
+        <v>8.737348067278106e-10</v>
       </c>
       <c r="E50" t="n">
         <v>4.922942753182724e-05</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01059901528060436</v>
+        <v>6.105118632859785e-09</v>
       </c>
       <c r="E51" t="n">
         <v>7.391853432636708e-05</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0008354571182280779</v>
+        <v>2.012261024475492e-09</v>
       </c>
       <c r="E52" t="n">
         <v>3.01596646750113e-05</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.006701936945319176</v>
+        <v>9.246294752074391e-08</v>
       </c>
       <c r="E53" t="n">
         <v>0.002462628297507763</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.003697866341099143</v>
+        <v>1.530390747461752e-08</v>
       </c>
       <c r="E54" t="n">
         <v>0.005130619276314974</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.003269068198278546</v>
+        <v>8.784431848596341e-09</v>
       </c>
       <c r="E55" t="n">
         <v>0.001514895004220307</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02448179386556149</v>
+        <v>2.708778445992266e-08</v>
       </c>
       <c r="E56" t="n">
         <v>0.01054165605455637</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001110424404032528</v>
+        <v>4.065535463837477e-09</v>
       </c>
       <c r="E57" t="n">
         <v>0.002337196609005332</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>8.768161205807701e-05</v>
+        <v>4.761427696564624e-09</v>
       </c>
       <c r="E58" t="n">
         <v>4.432621153682703e-06</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01124989613890648</v>
+        <v>1.845049224513673e-09</v>
       </c>
       <c r="E59" t="n">
         <v>6.722124089719728e-05</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008457440882921219</v>
+        <v>6.857519885272723e-09</v>
       </c>
       <c r="E60" t="n">
         <v>0.0001413218269590288</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01415257062762976</v>
+        <v>5.059809016216832e-09</v>
       </c>
       <c r="E61" t="n">
         <v>0.002875440521165729</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001299906871281564</v>
+        <v>7.063268858686911e-10</v>
       </c>
       <c r="E62" t="n">
         <v>1.843412064772565e-05</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.000508794269990176</v>
+        <v>3.661854430792033e-10</v>
       </c>
       <c r="E63" t="n">
         <v>1.633049350857618e-06</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.003542523831129074</v>
+        <v>1.42041411965721e-09</v>
       </c>
       <c r="E64" t="n">
         <v>0.001398300868459046</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001927277888171375</v>
+        <v>4.685247745328525e-09</v>
       </c>
       <c r="E65" t="n">
         <v>0.0001222101709572598</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01143468078225851</v>
+        <v>8.373626236846121e-09</v>
       </c>
       <c r="E66" t="n">
         <v>0.0001321474846918136</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00526838842779398</v>
+        <v>6.237294708499874e-11</v>
       </c>
       <c r="E67" t="n">
         <v>1.335194610874169e-05</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01398357842117548</v>
+        <v>3.890289690389181e-08</v>
       </c>
       <c r="E68" t="n">
         <v>0.003364688949659467</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.006370801944285631</v>
+        <v>2.845718105604078e-10</v>
       </c>
       <c r="E69" t="n">
         <v>0.0002246214135084301</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.007644104771316051</v>
+        <v>1.637697477629985e-10</v>
       </c>
       <c r="E70" t="n">
         <v>0.0002555226965341717</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.007644104771316051</v>
+        <v>1.637697477629985e-10</v>
       </c>
       <c r="E71" t="n">
         <v>0.0002555226965341717</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0005898812087252736</v>
+        <v>1.789100256832654e-10</v>
       </c>
       <c r="E72" t="n">
         <v>1.742334825394209e-05</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>7.300294964807108e-05</v>
+        <v>5.175943701418717e-11</v>
       </c>
       <c r="E73" t="n">
         <v>8.70926942297956e-06</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01196003332734108</v>
+        <v>2.958391753793421e-09</v>
       </c>
       <c r="E74" t="n">
         <v>0.001545583014376462</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.003218031721189618</v>
+        <v>3.624335498386699e-09</v>
       </c>
       <c r="E75" t="n">
         <v>0.00279749883338809</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005831989925354719</v>
+        <v>2.556026779121368e-10</v>
       </c>
       <c r="E76" t="n">
         <v>1.445533371224883e-06</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.005942087154835463</v>
+        <v>4.874745496152855e-09</v>
       </c>
       <c r="E77" t="n">
         <v>0.0007257364923134446</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.006399407051503658</v>
+        <v>2.026619289052789e-10</v>
       </c>
       <c r="E78" t="n">
         <v>0.000881490355823189</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01147245615720749</v>
+        <v>2.336047744133651e-10</v>
       </c>
       <c r="E79" t="n">
         <v>0.0001366304932162166</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02086050249636173</v>
+        <v>1.108156322260356e-08</v>
       </c>
       <c r="E80" t="n">
         <v>0.002008047886192799</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004502735566347837</v>
+        <v>6.1120353223032e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.001047028694301844</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01991024613380432</v>
+        <v>1.259948145815315e-08</v>
       </c>
       <c r="E82" t="n">
         <v>0.01068546809256077</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.003278126707300544</v>
+        <v>1.832833440573722e-08</v>
       </c>
       <c r="E83" t="n">
         <v>0.0007684711017645895</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.001140718813985586</v>
+        <v>6.463905410925008e-09</v>
       </c>
       <c r="E84" t="n">
         <v>3.144265065202489e-05</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00954725593328476</v>
+        <v>5.85133363983914e-09</v>
       </c>
       <c r="E85" t="n">
         <v>0.0008544494048692286</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.006528913509100676</v>
+        <v>3.878762555586945e-08</v>
       </c>
       <c r="E86" t="n">
         <v>0.000946333515457809</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0008524958393536508</v>
+        <v>5.983053497082835e-10</v>
       </c>
       <c r="E87" t="n">
         <v>0.000214552492252551</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0007428390090353787</v>
+        <v>1.054113241139021e-08</v>
       </c>
       <c r="E88" t="n">
         <v>0.0001592090411577374</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.005896346177905798</v>
+        <v>6.501368193800872e-11</v>
       </c>
       <c r="E89" t="n">
         <v>0.0003655711188912392</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02319741062819958</v>
+        <v>5.942045078199953e-09</v>
       </c>
       <c r="E90" t="n">
         <v>0.0003194886376149952</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.006709619890898466</v>
+        <v>6.102670035978974e-10</v>
       </c>
       <c r="E91" t="n">
         <v>0.0001130641103372909</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.003173568286001682</v>
+        <v>2.695106360306454e-09</v>
       </c>
       <c r="E92" t="n">
         <v>0.000319368700729683</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>2.538368971727323e-05</v>
+        <v>8.622940139701996e-10</v>
       </c>
       <c r="E93" t="n">
         <v>4.455029284144985e-06</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.03342390432953835</v>
+        <v>5.427717719719283e-10</v>
       </c>
       <c r="E94" t="n">
         <v>0.002844495000317693</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0002440651733195409</v>
+        <v>2.96283886314086e-10</v>
       </c>
       <c r="E95" t="n">
         <v>2.90741763819824e-06</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.00258313468657434</v>
+        <v>1.191470366812553e-09</v>
       </c>
       <c r="E96" t="n">
         <v>0.0003655718464870006</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001743642846122384</v>
+        <v>3.840965323576029e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.002588259521871805</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002726030070334673</v>
+        <v>9.645345633302327e-10</v>
       </c>
       <c r="E98" t="n">
         <v>4.249615085427649e-05</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.001180210616439581</v>
+        <v>2.427890666290011e-10</v>
       </c>
       <c r="E99" t="n">
         <v>0.0001010582345770672</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0001105342817027122</v>
+        <v>6.135462277123693e-11</v>
       </c>
       <c r="E100" t="n">
         <v>2.406392377451994e-05</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.001460249884985387</v>
+        <v>1.394892257255975e-10</v>
       </c>
       <c r="E101" t="n">
         <v>5.353897358872928e-05</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
